--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,177 +43,177 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>however</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>thought</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>1</t>
+    <t>expected</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>expected</t>
+    <t>use</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -253,22 +253,25 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>game</t>
@@ -646,7 +649,7 @@
         <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +731,13 @@
         <v>70</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K5">
-        <v>0.6666666666666666</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7580645161290323</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7464788732394366</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K7">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7135922330097088</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K8">
-        <v>0.4927536231884058</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6891891891891891</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D9">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K9">
-        <v>0.3729508196721312</v>
+        <v>0.3598360655737705</v>
       </c>
       <c r="L9">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="M9">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>765</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6875</v>
+        <v>0.6844660194174758</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K10">
-        <v>0.351506456241033</v>
+        <v>0.3443328550932568</v>
       </c>
       <c r="L10">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M10">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.6824324324324325</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K11">
-        <v>0.2717842323651452</v>
+        <v>0.2966804979253112</v>
       </c>
       <c r="L11">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M11">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6578947368421053</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K12">
-        <v>0.2469879518072289</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6386554621848739</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C13">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K13">
-        <v>0.2333333333333333</v>
+        <v>0.2324159021406728</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6363636363636364</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K14">
-        <v>0.2171253822629969</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L14">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.5625</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K15">
-        <v>0.201058201058201</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5111111111111111</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K16">
-        <v>0.1060473269062226</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1020</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K17">
-        <v>0.1004016064257028</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4939759036144578</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,31 +1475,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K18">
-        <v>0.04876462938881664</v>
+        <v>0.1035087719298246</v>
       </c>
       <c r="L18">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="M18">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>1463</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4840579710144928</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C19">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,31 +1525,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K19">
-        <v>0.03337783711615487</v>
+        <v>0.05386112913692408</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="N19">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>724</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4803149606299212</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,7 +1575,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>66</v>
+        <v>27</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20">
+        <v>0.03204272363150868</v>
+      </c>
+      <c r="L20">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>27</v>
+      </c>
+      <c r="N20">
+        <v>0.89</v>
+      </c>
+      <c r="O20">
+        <v>0.11</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.453125</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1606,13 +1633,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4444444444444444</v>
+        <v>0.453125</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1624,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1632,13 +1659,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4421052631578947</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1650,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1658,13 +1685,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4074074074074074</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1676,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1684,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.40625</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="C25">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>52</v>
-      </c>
-      <c r="D25">
-        <v>52</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1710,13 +1737,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1728,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1736,13 +1763,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3968253968253968</v>
+        <v>0.3828125</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1754,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1762,13 +1789,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3932584269662922</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1780,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1788,13 +1815,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3809523809523809</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1814,7 +1841,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.360655737704918</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C30">
         <v>22</v>
@@ -1832,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1840,7 +1867,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3459715639810427</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C31">
         <v>73</v>
@@ -1858,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1866,13 +1893,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3432835820895522</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1884,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1892,13 +1919,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3267326732673267</v>
+        <v>0.3270142180094787</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1910,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1918,13 +1945,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3265306122448979</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1936,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1970,13 +1997,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2577319587628866</v>
+        <v>0.2436708860759494</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1988,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>144</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1996,25 +2023,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.224368499257058</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C37">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="E37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>522</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2022,13 +2049,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2215189873417721</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C38">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2040,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>246</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2048,13 +2075,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2173913043478261</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C39">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2066,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>216</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2074,13 +2101,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2088607594936709</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C40">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D40">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2092,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2100,13 +2127,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2038216560509554</v>
+        <v>0.2102803738317757</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2118,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2126,13 +2153,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2144,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>160</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2152,13 +2179,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1949152542372881</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2170,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2178,25 +2205,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1928571428571429</v>
+        <v>0.2005943536404161</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>113</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2204,13 +2231,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1850220264317181</v>
+        <v>0.1910828025477707</v>
       </c>
       <c r="C45">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2222,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>370</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2230,13 +2257,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1828571428571429</v>
+        <v>0.19</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2248,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2256,13 +2283,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1822429906542056</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="C47">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D47">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2274,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2282,25 +2309,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1498559077809798</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C48">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>295</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2308,25 +2335,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1223404255319149</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E49">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F49">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>165</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2334,13 +2361,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1202185792349727</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2352,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2360,13 +2387,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1145833333333333</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2378,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>170</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2386,25 +2413,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1090225563909774</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2412,13 +2439,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1088709677419355</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2430,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>221</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2438,13 +2465,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.09859154929577464</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2456,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>320</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2464,25 +2491,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09615384615384616</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="C55">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D55">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2490,25 +2517,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09534883720930233</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C56">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>389</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2516,13 +2543,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.08896210873146623</v>
+        <v>0.09598214285714286</v>
       </c>
       <c r="C57">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D57">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E57">
         <v>0.02</v>
@@ -2534,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>553</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2542,25 +2569,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08214285714285714</v>
+        <v>0.08745874587458746</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D58">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>257</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2568,25 +2595,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0738255033557047</v>
+        <v>0.08192090395480225</v>
       </c>
       <c r="C59">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E59">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>414</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2594,25 +2621,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.06962025316455696</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D60">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E60">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="F60">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>294</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2620,25 +2647,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05647058823529412</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="F61">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2646,13 +2673,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.04955527318932656</v>
+        <v>0.04441624365482234</v>
       </c>
       <c r="C62">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D62">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E62">
         <v>0.15</v>
@@ -2664,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2672,19 +2699,19 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04281345565749235</v>
+        <v>0.04134762633996937</v>
       </c>
       <c r="C63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F63">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
